--- a/biology/Botanique/Centaurea_virgata/Centaurea_virgata.xlsx
+++ b/biology/Botanique/Centaurea_virgata/Centaurea_virgata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Centaurea virgata, qui a pour nom commun Centaurée en baguette[1], est une espèce de plante à fleurs de la famille des Asteraceae et du genre Centaurea.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Centaurea virgata, qui a pour nom commun Centaurée en baguette, est une espèce de plante à fleurs de la famille des Asteraceae et du genre Centaurea.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Centaurea virgata est une plante vivace à racine pivotante, pouvant atteindre une hauteur de 92 cm. La racine pivotante permet à cette mauvaise herbe de prospérer dans les sites secs, de sorte qu'elle peut être plus envahissante que Centaurea diffusa dans les terres ultra-sèches.
 Les fleurs sont formées dans une tête élancée en forme d'urne (4 à 8 fleurs par tête). Les têtes sont légèrement incurvées vers le bas et ressemblent à la Centaurea diffusa mais avec des fleurs rose-violet. La tête est constituée d'un groupe de bractées et l'extrémité de la bractée est courbée.
@@ -544,9 +558,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Centaurea virgata est originaire de l'Asie tempérée et de l'Europe du Sud-Est[2]. En Amérique du Nord, elle est considérée comme une plante nuisible[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Centaurea virgata est originaire de l'Asie tempérée et de l'Europe du Sud-Est. En Amérique du Nord, elle est considérée comme une plante nuisible.
 </t>
         </is>
       </c>
@@ -575,9 +591,11 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sa fleur est butinée par les abeilles Anthidiellum strigatum, Megachile pilicrus (sv), Megachile rotundata[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sa fleur est butinée par les abeilles Anthidiellum strigatum, Megachile pilicrus (sv), Megachile rotundata.
 </t>
         </is>
       </c>
@@ -606,7 +624,9 @@
           <t>Parasitologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">La fleur a pour parasites Chaetorellia acrolophi, Urophora affinis. Le fruit a pour parasite Urophora quadrifasciata. La feuille a pour parasites Adelphocoris lineolatus, Oncotylus setulosus (en), Oncotylus viridiflavus (de), Peribalus strictus (de), Carpocoris pudicus, Golovinomyces cichoracearum, Leveillula taurica (en),  Puccinia carthami (sv), Puccinia cyani (de), Puccinia jaceae.
 </t>
@@ -637,9 +657,11 @@
           <t>Médecine</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Centaurea virgata est largement utilisée en médecine traditionnelle en Turquie pour le traitement du diabète, des allergies et des ulcères gastriques[5].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Centaurea virgata est largement utilisée en médecine traditionnelle en Turquie pour le traitement du diabète, des allergies et des ulcères gastriques.
 </t>
         </is>
       </c>
